--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1566058.884603257</v>
+        <v>-1568615.200430506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673313</v>
+        <v>12574568.46673314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>83.41943806107113</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>85.60757961725426</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +871,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>185.4349392502762</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623856</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>249.545655307622</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.8128845006365</v>
       </c>
       <c r="W7" t="n">
-        <v>253.0207069265283</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>208.3615960537181</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.4331707528103</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492424</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>209.7073619902638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182112</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507432</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2944603446567</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856647</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892455</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.96788793061756</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>225.6414338000054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541853</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176105</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.413029176105</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4495,43 +4495,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>799.6142115756892</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430639</v>
+        <v>1306.260082905503</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351053</v>
+        <v>1605.589681825916</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784712</v>
+        <v>1704.540684578675</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937227</v>
+        <v>1717.461451937216</v>
       </c>
       <c r="R4" t="n">
-        <v>1717.461451937227</v>
+        <v>1627.630994694744</v>
       </c>
       <c r="S4" t="n">
-        <v>1525.775567764053</v>
+        <v>1435.94511052157</v>
       </c>
       <c r="T4" t="n">
-        <v>1304.00895233358</v>
+        <v>1214.178495091096</v>
       </c>
       <c r="U4" t="n">
-        <v>1116.700932888856</v>
+        <v>925.0756282167393</v>
       </c>
       <c r="V4" t="n">
-        <v>862.0164446829692</v>
+        <v>670.3911400108525</v>
       </c>
       <c r="W4" t="n">
-        <v>862.0164446829692</v>
+        <v>380.9739699738919</v>
       </c>
       <c r="X4" t="n">
-        <v>862.0164446829692</v>
+        <v>152.9844190758746</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>152.9844190758746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3073.539503116623</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2742.476615773052</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2389.707960502938</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>624.6477645191717</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>624.6477645191717</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168678</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149023</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.179586173211</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.768990369206</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>825.3518203322459</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277367</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>920.6398131926233</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>770.5231737802875</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>622.6100801978944</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>475.720132699984</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>308.5240334148639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.22446095077</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227614</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>626.3497813227614</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>479.459833824851</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>312.2637345397309</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>170.551903381929</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,28 +7114,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,16 +7248,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,19 +8143,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>138.3747553788917</v>
+        <v>160.214616161227</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>298.5109320111907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>280.1262230804338</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.22440056468304</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>100.7768989553366</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582595</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892451</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>9.000252501567218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>5.297948387947969</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>60.88156453658561</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1284064.717777019</v>
+        <v>1284064.717777018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1284064.717777019</v>
+        <v>1284064.717777018</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1284064.717777019</v>
+        <v>1284064.717777018</v>
       </c>
     </row>
     <row r="8">
@@ -26314,19 +26314,19 @@
         <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="D2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="D2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26335,22 +26335,22 @@
         <v>141250.6549457512</v>
       </c>
       <c r="J2" t="n">
+        <v>141250.6549457511</v>
+      </c>
+      <c r="K2" t="n">
         <v>141250.6549457512</v>
-      </c>
-      <c r="K2" t="n">
-        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262494</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583463</v>
+        <v>10751.83355583448</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
@@ -26436,25 +26436,25 @@
         <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="L4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493624</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1328954.021218795</v>
+        <v>-1329314.104234513</v>
       </c>
       <c r="C6" t="n">
-        <v>-57045.47371833777</v>
+        <v>-57045.47371833763</v>
       </c>
       <c r="D6" t="n">
-        <v>-57045.47371833763</v>
+        <v>-57045.47371833769</v>
       </c>
       <c r="E6" t="n">
-        <v>-298891.1447973539</v>
+        <v>-298925.8827227891</v>
       </c>
       <c r="F6" t="n">
-        <v>26521.31701000126</v>
+        <v>26486.57908456563</v>
       </c>
       <c r="G6" t="n">
-        <v>26521.31701000124</v>
+        <v>26486.5790845656</v>
       </c>
       <c r="H6" t="n">
-        <v>26521.31701000125</v>
+        <v>26486.57908456553</v>
       </c>
       <c r="I6" t="n">
-        <v>26521.31701000128</v>
+        <v>26486.57908456563</v>
       </c>
       <c r="J6" t="n">
-        <v>-191009.8853872761</v>
+        <v>-191044.623312712</v>
       </c>
       <c r="K6" t="n">
-        <v>26521.31701000124</v>
+        <v>26486.57908456564</v>
       </c>
       <c r="L6" t="n">
-        <v>-507.1914962339506</v>
+        <v>-507.1914962339942</v>
       </c>
       <c r="M6" t="n">
-        <v>-66134.50143811372</v>
+        <v>-66134.50143811398</v>
       </c>
       <c r="N6" t="n">
-        <v>18920.52649739805</v>
+        <v>18920.52649739802</v>
       </c>
       <c r="O6" t="n">
-        <v>18920.52649739798</v>
+        <v>18920.52649739804</v>
       </c>
       <c r="P6" t="n">
-        <v>18920.52649739807</v>
+        <v>18920.52649739804</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.748870667242</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.449516651280021</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.3247588231915</v>
       </c>
       <c r="W7" t="n">
-        <v>33.50229141006267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146.3214455669648</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609168</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.663356568007</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>42.43028133356415</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>616.375287159485</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34863,19 +34863,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>311.41398470197</v>
+        <v>333.2538454843053</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>473.7790427150405</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
